--- a/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD0/LR-pairs_lrc2p/Lrpap1-Ldlr.xlsx
@@ -534,16 +534,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>5.652167666666666</v>
+        <v>5.313941333333333</v>
       </c>
       <c r="H2">
-        <v>16.956503</v>
+        <v>15.941824</v>
       </c>
       <c r="I2">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="J2">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.672264666666667</v>
+        <v>1.090291</v>
       </c>
       <c r="N2">
-        <v>8.016794000000001</v>
+        <v>3.270873</v>
       </c>
       <c r="O2">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="P2">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="Q2">
-        <v>15.10408794570911</v>
+        <v>5.793742410261332</v>
       </c>
       <c r="R2">
-        <v>135.936791511382</v>
+        <v>52.143681692352</v>
       </c>
       <c r="S2">
-        <v>0.01259930187414668</v>
+        <v>0.005091480781243634</v>
       </c>
       <c r="T2">
-        <v>0.01259930187414668</v>
+        <v>0.005091480781243634</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>5.652167666666666</v>
+        <v>5.313941333333333</v>
       </c>
       <c r="H3">
-        <v>16.956503</v>
+        <v>15.941824</v>
       </c>
       <c r="I3">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="J3">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>82.25658</v>
       </c>
       <c r="O3">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917256</v>
       </c>
       <c r="P3">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917257</v>
       </c>
       <c r="Q3">
-        <v>154.97599394886</v>
+        <v>145.70221346688</v>
       </c>
       <c r="R3">
-        <v>1394.78394553974</v>
+        <v>1311.31992120192</v>
       </c>
       <c r="S3">
-        <v>0.129275553613439</v>
+        <v>0.128041595072884</v>
       </c>
       <c r="T3">
-        <v>0.129275553613439</v>
+        <v>0.1280415950728841</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,16 +658,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>5.652167666666666</v>
+        <v>5.313941333333333</v>
       </c>
       <c r="H4">
-        <v>16.956503</v>
+        <v>15.941824</v>
       </c>
       <c r="I4">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="J4">
-        <v>0.186032906594887</v>
+        <v>0.176869630377001</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,22 +682,22 @@
         <v>28.097271</v>
       </c>
       <c r="O4">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="P4">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="Q4">
-        <v>52.936828889257</v>
+        <v>49.769083240256</v>
       </c>
       <c r="R4">
-        <v>476.4314600033129</v>
+        <v>447.921749162304</v>
       </c>
       <c r="S4">
-        <v>0.04415805110730137</v>
+        <v>0.04373655452287328</v>
       </c>
       <c r="T4">
-        <v>0.04415805110730137</v>
+        <v>0.04373655452287328</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>49.221867</v>
       </c>
       <c r="I5">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="J5">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>2.672264666666667</v>
+        <v>1.090291</v>
       </c>
       <c r="N5">
-        <v>8.016794000000001</v>
+        <v>3.270873</v>
       </c>
       <c r="O5">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="P5">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="Q5">
-        <v>43.84461867048868</v>
+        <v>17.888719531099</v>
       </c>
       <c r="R5">
-        <v>394.601568034398</v>
+        <v>160.998475779891</v>
       </c>
       <c r="S5">
-        <v>0.03657364735771866</v>
+        <v>0.01572042131737436</v>
       </c>
       <c r="T5">
-        <v>0.03657364735771866</v>
+        <v>0.01572042131737436</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>49.221867</v>
       </c>
       <c r="I6">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="J6">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>82.25658</v>
       </c>
       <c r="O6">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917256</v>
       </c>
       <c r="P6">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917257</v>
       </c>
       <c r="Q6">
         <v>449.86916007054</v>
@@ -818,10 +818,10 @@
         <v>4048.82244063486</v>
       </c>
       <c r="S6">
-        <v>0.37526511842165</v>
+        <v>0.3953403552281944</v>
       </c>
       <c r="T6">
-        <v>0.37526511842165</v>
+        <v>0.3953403552281944</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>49.221867</v>
       </c>
       <c r="I7">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="J7">
-        <v>0.5400221369958743</v>
+        <v>0.5461014638447835</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,10 +868,10 @@
         <v>28.097271</v>
       </c>
       <c r="O7">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="P7">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="Q7">
         <v>153.666681802773</v>
@@ -880,10 +880,10 @@
         <v>1383.000136224957</v>
       </c>
       <c r="S7">
-        <v>0.1281833712165056</v>
+        <v>0.1350406872992148</v>
       </c>
       <c r="T7">
-        <v>0.1281833712165056</v>
+        <v>0.1350406872992148</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,10 +912,10 @@
         <v>24.969499</v>
       </c>
       <c r="I8">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="J8">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.672264666666667</v>
+        <v>1.090291</v>
       </c>
       <c r="N8">
-        <v>8.016794000000001</v>
+        <v>3.270873</v>
       </c>
       <c r="O8">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="P8">
-        <v>0.06772620019093417</v>
+        <v>0.02878663098006733</v>
       </c>
       <c r="Q8">
-        <v>22.24170330735623</v>
+        <v>9.074673344736333</v>
       </c>
       <c r="R8">
-        <v>200.175329766206</v>
+        <v>81.672060102627</v>
       </c>
       <c r="S8">
-        <v>0.01855325095906883</v>
+        <v>0.007974728881449332</v>
       </c>
       <c r="T8">
-        <v>0.01855325095906884</v>
+        <v>0.007974728881449334</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,10 +974,10 @@
         <v>24.969499</v>
       </c>
       <c r="I9">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="J9">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,10 +992,10 @@
         <v>82.25658</v>
       </c>
       <c r="O9">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917256</v>
       </c>
       <c r="P9">
-        <v>0.6949069171668364</v>
+        <v>0.7239320554917257</v>
       </c>
       <c r="Q9">
         <v>228.21173245038</v>
@@ -1004,10 +1004,10 @@
         <v>2053.90559205342</v>
       </c>
       <c r="S9">
-        <v>0.1903662451317474</v>
+        <v>0.2005501051906471</v>
       </c>
       <c r="T9">
-        <v>0.1903662451317475</v>
+        <v>0.2005501051906472</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,10 +1036,10 @@
         <v>24.969499</v>
       </c>
       <c r="I10">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="J10">
-        <v>0.2739449564092387</v>
+        <v>0.2770289057782155</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,10 +1054,10 @@
         <v>28.097271</v>
       </c>
       <c r="O10">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="P10">
-        <v>0.2373668826422294</v>
+        <v>0.2472813135282071</v>
       </c>
       <c r="Q10">
         <v>77.952753348581</v>
@@ -1066,10 +1066,10 @@
         <v>701.5747801372289</v>
       </c>
       <c r="S10">
-        <v>0.06502546031842241</v>
+        <v>0.06850407170611908</v>
       </c>
       <c r="T10">
-        <v>0.06502546031842242</v>
+        <v>0.06850407170611908</v>
       </c>
     </row>
   </sheetData>
